--- a/result/preprocessed_from_shopee.xlsx
+++ b/result/preprocessed_from_shopee.xlsx
@@ -1,63 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <r>
-      <t xml:space="preserve">account</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">label</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dolinapit70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">gacor</t>
-    </r>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">irfan.ar13</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">moga fungsi dengan baik awet</t>
-    </r>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,28 +19,19 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,196 +420,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">account</t>
-          </r>
+          <t>account</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">review</t>
-          </r>
+          <t>review</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">label</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+          <t>label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">dolinapit70</t>
-          </r>
+          <t>rahmaawf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">gacor</t>
-          </r>
-        </is>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+          <t>produk saya beli kualitas bagus muas emas cepat kirim cepat barang tiba sesuai kurang apa pun varian pas jumlahny sesuai harga murah pokok mantul</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">irfan.ar13</t>
-          </r>
+          <t>rafikaameli95</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">moga fungsi dengan baik awet</t>
-          </r>
-        </is>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" t="s">
-        <v>8</v>
+          <t>performa barang nya bagus halus warna nya cantik banget kualitas jahit rapi banget cocok untuk cocok banget buat ajak santai santai jujur ya gua sempat ragu mau pesan boneka shope kayak gin ini luar ekspektasi gua dong sumpah boneka nya keren banget warna nya cantik banget harga nya murah banget dan jadi langan sih nih toko</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>diina_08</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tekstur lembut banget nyaman banget peluk desain imut lucu cocok untuk anakanak orang dewasa tetap cocok sih adek suka banget sama boneka bawa kemana sampai tidur sama sih pinguin padahal sih adek cowok suka banget sama boneka</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>riskianz_</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>performa lucu banget kualitas sempurna cocok untuk bagai usia aduh engak tau pokok lucu banget hua sampai nang gatahan karena gemoy banget lembut engak kecewa deh pokok</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>erlindatria30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>performa lucu cocok untuk semua orang kualitas bagus banget boneka lucu lembut tergemoy aku punya produk miniso memang engak usah diraguin lagi ini bagus banget gemoy banget boneka</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shereenalicia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cocok untuk semua umur performa bagus kualitas bagus sesuai harga boneka dengan aman packing rapi aman boneka lapis plastik bening penguin nya lucu soft banget produk miniso engak pernah jelek sudah cowok produk miniso kali kali engak pernah kecewa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ayusetianingrum01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>performa lucu kualitas bagus cocok untuk kado bagus banget bahan lembut lucu cocok banget kado thankyou seler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>qoriah19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>miniso oficial engak ragu lagi bahan super lembut lucu n afordable adek suka banget sama pinguinya</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dedijuventini1987</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kualitas mantap cocok untuk anak gadis performa baik alhamdulilah anak gadis ku senang banget</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>momikiatar123</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>performa bagus banget kualitas bagus cocok untuk kado mau nangis bagus banget dong boneka nya lucu banget bulu halus banget orisinal minisio dan sudah sni juga sukak semoga yang kasih nya juga suka</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>videvial</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>performa lembut cocok untuk kado kualitas bagus dapat harga murah diskon live worth banget harga segitu dapat boneka bagus lembut lucu rapi mantap deh pokok nya</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mohamadrichello</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tekstur boneka lembut desain lucu banget cocok untuk semua tak seler boneka deh sampai lucu banget bahan halus lembut pas banget dapat harga promo respon seler cepat kirim cepat</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>